--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -47,21 +47,6 @@
     <t>COSU6193984580</t>
   </si>
   <si>
-    <t>FSCU4642672</t>
-  </si>
-  <si>
-    <t>EVER ETHIC</t>
-  </si>
-  <si>
-    <t>1071E</t>
-  </si>
-  <si>
-    <t>9072902917-01</t>
-  </si>
-  <si>
-    <t>COSU6193969400</t>
-  </si>
-  <si>
     <t>BMOU4396340</t>
   </si>
   <si>
@@ -77,43 +62,19 @@
     <t>COSU6193974190</t>
   </si>
   <si>
-    <t>FSCU8819220</t>
-  </si>
-  <si>
-    <t>EVER SMART</t>
-  </si>
-  <si>
-    <t>1072-096E</t>
-  </si>
-  <si>
-    <t>9074902016-01</t>
-  </si>
-  <si>
-    <t>6193975500</t>
-  </si>
-  <si>
-    <t>CBHU8887450</t>
+    <t>CEOU2021992</t>
   </si>
   <si>
     <t>EVER LIVEN</t>
   </si>
   <si>
-    <t>0837E</t>
-  </si>
-  <si>
-    <t>9079901557-01</t>
-  </si>
-  <si>
-    <t>COSU6185058250</t>
-  </si>
-  <si>
-    <t>TCNU4796503</t>
-  </si>
-  <si>
-    <t>9072902115-01</t>
-  </si>
-  <si>
-    <t>COSU6193965270</t>
+    <t>0844E</t>
+  </si>
+  <si>
+    <t>9077903261-01</t>
+  </si>
+  <si>
+    <t>COSU6203654360</t>
   </si>
 </sst>
 </file>
@@ -158,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -238,60 +199,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -75,6 +75,36 @@
   </si>
   <si>
     <t>COSU6203654360</t>
+  </si>
+  <si>
+    <t>RFCU4114542</t>
+  </si>
+  <si>
+    <t>EVER LEGACY</t>
+  </si>
+  <si>
+    <t>034E</t>
+  </si>
+  <si>
+    <t>9072904799-01</t>
+  </si>
+  <si>
+    <t>COSU6203869480</t>
+  </si>
+  <si>
+    <t>HESU4027089</t>
+  </si>
+  <si>
+    <t>NAVARINO</t>
+  </si>
+  <si>
+    <t>0848E</t>
+  </si>
+  <si>
+    <t>9075904134-01</t>
+  </si>
+  <si>
+    <t>COSU6203956310</t>
   </si>
 </sst>
 </file>
@@ -119,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -199,6 +229,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -30,21 +30,6 @@
   </si>
   <si>
     <t>BOLNumber</t>
-  </si>
-  <si>
-    <t>CSNU7211854</t>
-  </si>
-  <si>
-    <t>NORTHERN JUVENILE</t>
-  </si>
-  <si>
-    <t>1074-010E</t>
-  </si>
-  <si>
-    <t>9078902085-01</t>
-  </si>
-  <si>
-    <t>COSU6193984580</t>
   </si>
   <si>
     <t>BMOU4396340</t>
@@ -149,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -247,24 +232,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -62,6 +62,27 @@
     <t>COSU6203654360</t>
   </si>
   <si>
+    <t>CCLU4715365</t>
+  </si>
+  <si>
+    <t>EVER SMILE</t>
+  </si>
+  <si>
+    <t>1081E</t>
+  </si>
+  <si>
+    <t>9077904371-01</t>
+  </si>
+  <si>
+    <t>COSU6204572830</t>
+  </si>
+  <si>
+    <t>FSCU5038306</t>
+  </si>
+  <si>
+    <t>9077904373-01</t>
+  </si>
+  <si>
     <t>RFCU4114542</t>
   </si>
   <si>
@@ -77,6 +98,33 @@
     <t>COSU6203869480</t>
   </si>
   <si>
+    <t>CBHU6409087</t>
+  </si>
+  <si>
+    <t>9077904368-01</t>
+  </si>
+  <si>
+    <t>HESU4031448</t>
+  </si>
+  <si>
+    <t>EVER LOVELY</t>
+  </si>
+  <si>
+    <t>0850E</t>
+  </si>
+  <si>
+    <t>9071905305-01</t>
+  </si>
+  <si>
+    <t>COSU6211257620</t>
+  </si>
+  <si>
+    <t>CCLU4829579</t>
+  </si>
+  <si>
+    <t>9077904372-01</t>
+  </si>
+  <si>
     <t>HESU4027089</t>
   </si>
   <si>
@@ -90,6 +138,12 @@
   </si>
   <si>
     <t>COSU6203956310</t>
+  </si>
+  <si>
+    <t>HESU4031406</t>
+  </si>
+  <si>
+    <t>9071905304-01</t>
   </si>
 </sst>
 </file>
@@ -134,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,17 +273,125 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,21 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>BMOU4396340</t>
-  </si>
-  <si>
-    <t>EVER URANUS</t>
-  </si>
-  <si>
-    <t>1073-129E</t>
-  </si>
-  <si>
-    <t>9075903457-01</t>
-  </si>
-  <si>
-    <t>COSU6193974190</t>
-  </si>
-  <si>
     <t>CEOU2021992</t>
   </si>
   <si>
@@ -144,6 +129,30 @@
   </si>
   <si>
     <t>9071905304-01</t>
+  </si>
+  <si>
+    <t>BSIU9554839</t>
+  </si>
+  <si>
+    <t>EVER SALUTE</t>
+  </si>
+  <si>
+    <t>1083-078E</t>
+  </si>
+  <si>
+    <t>9078904274-01</t>
+  </si>
+  <si>
+    <t>COSU6209501940</t>
+  </si>
+  <si>
+    <t>CBHU6353563</t>
+  </si>
+  <si>
+    <t>9078904273-01</t>
+  </si>
+  <si>
+    <t>COSU6209501930</t>
   </si>
 </sst>
 </file>
@@ -188,7 +197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -255,35 +264,35 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -291,35 +300,35 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -327,35 +336,35 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -363,35 +372,53 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,21 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CEOU2021992</t>
-  </si>
-  <si>
-    <t>EVER LIVEN</t>
-  </si>
-  <si>
-    <t>0844E</t>
-  </si>
-  <si>
-    <t>9077903261-01</t>
-  </si>
-  <si>
-    <t>COSU6203654360</t>
-  </si>
-  <si>
     <t>CCLU4715365</t>
   </si>
   <si>
@@ -144,6 +129,39 @@
   </si>
   <si>
     <t>COSU6209501940</t>
+  </si>
+  <si>
+    <t>HESU4029923</t>
+  </si>
+  <si>
+    <t>EVER LIBRA</t>
+  </si>
+  <si>
+    <t>0852E</t>
+  </si>
+  <si>
+    <t>9074905934-01</t>
+  </si>
+  <si>
+    <t>COSU6211416150</t>
+  </si>
+  <si>
+    <t>HESU4029939</t>
+  </si>
+  <si>
+    <t>9074905935-01</t>
+  </si>
+  <si>
+    <t>HESU4029944</t>
+  </si>
+  <si>
+    <t>9074905936-01</t>
+  </si>
+  <si>
+    <t>TEMU0152483</t>
+  </si>
+  <si>
+    <t>9074905937-01</t>
   </si>
   <si>
     <t>CBHU6353563</t>
@@ -197,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -246,35 +264,35 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -282,35 +300,35 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -318,35 +336,35 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -354,35 +372,35 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -418,7 +436,61 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -53,21 +53,6 @@
     <t>9077904373-01</t>
   </si>
   <si>
-    <t>RFCU4114542</t>
-  </si>
-  <si>
-    <t>EVER LEGACY</t>
-  </si>
-  <si>
-    <t>034E</t>
-  </si>
-  <si>
-    <t>9072904799-01</t>
-  </si>
-  <si>
-    <t>COSU6203869480</t>
-  </si>
-  <si>
     <t>CBHU6409087</t>
   </si>
   <si>
@@ -150,6 +135,21 @@
   </si>
   <si>
     <t>9074905935-01</t>
+  </si>
+  <si>
+    <t>CSNU4095010</t>
+  </si>
+  <si>
+    <t>EVER LENIENT</t>
+  </si>
+  <si>
+    <t>0853E</t>
+  </si>
+  <si>
+    <t>9075905356-01</t>
+  </si>
+  <si>
+    <t>COSU6211479190</t>
   </si>
   <si>
     <t>HESU4029944</t>
@@ -282,35 +282,35 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -318,35 +318,35 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -354,35 +354,35 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -408,35 +408,35 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -444,17 +444,17 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -462,17 +462,17 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -480,10 +480,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -80,97 +80,127 @@
     <t>9077904372-01</t>
   </si>
   <si>
-    <t>HESU4027089</t>
+    <t>HESU4031406</t>
+  </si>
+  <si>
+    <t>9071905304-01</t>
+  </si>
+  <si>
+    <t>BSIU9554839</t>
+  </si>
+  <si>
+    <t>EVER SALUTE</t>
+  </si>
+  <si>
+    <t>1083-078E</t>
+  </si>
+  <si>
+    <t>9078904274-01</t>
+  </si>
+  <si>
+    <t>COSU6209501940</t>
+  </si>
+  <si>
+    <t>HESU4029923</t>
+  </si>
+  <si>
+    <t>EVER LIBRA</t>
+  </si>
+  <si>
+    <t>0852E</t>
+  </si>
+  <si>
+    <t>9074905934-01</t>
+  </si>
+  <si>
+    <t>COSU6211416150</t>
+  </si>
+  <si>
+    <t>HESU4029939</t>
+  </si>
+  <si>
+    <t>9074905935-01</t>
+  </si>
+  <si>
+    <t>CSNU4095010</t>
+  </si>
+  <si>
+    <t>EVER LENIENT</t>
+  </si>
+  <si>
+    <t>0853E</t>
+  </si>
+  <si>
+    <t>9075905356-01</t>
+  </si>
+  <si>
+    <t>COSU6211479190</t>
+  </si>
+  <si>
+    <t>HESU4029944</t>
+  </si>
+  <si>
+    <t>9074905936-01</t>
+  </si>
+  <si>
+    <t>TEMU0152483</t>
+  </si>
+  <si>
+    <t>9074905937-01</t>
+  </si>
+  <si>
+    <t>CBHU6353563</t>
+  </si>
+  <si>
+    <t>9078904273-01</t>
+  </si>
+  <si>
+    <t>COSU6209501930</t>
+  </si>
+  <si>
+    <t>EASU4002875</t>
   </si>
   <si>
     <t>NAVARINO</t>
   </si>
   <si>
-    <t>0848E</t>
-  </si>
-  <si>
-    <t>9075904134-01</t>
-  </si>
-  <si>
-    <t>COSU6203956310</t>
-  </si>
-  <si>
-    <t>HESU4031406</t>
-  </si>
-  <si>
-    <t>9071905304-01</t>
-  </si>
-  <si>
-    <t>BSIU9554839</t>
-  </si>
-  <si>
-    <t>EVER SALUTE</t>
-  </si>
-  <si>
-    <t>1083-078E</t>
-  </si>
-  <si>
-    <t>9078904274-01</t>
-  </si>
-  <si>
-    <t>COSU6209501940</t>
-  </si>
-  <si>
-    <t>HESU4029923</t>
-  </si>
-  <si>
-    <t>EVER LIBRA</t>
-  </si>
-  <si>
-    <t>0852E</t>
-  </si>
-  <si>
-    <t>9074905934-01</t>
-  </si>
-  <si>
-    <t>COSU6211416150</t>
-  </si>
-  <si>
-    <t>HESU4029939</t>
-  </si>
-  <si>
-    <t>9074905935-01</t>
-  </si>
-  <si>
-    <t>CSNU4095010</t>
-  </si>
-  <si>
-    <t>EVER LENIENT</t>
-  </si>
-  <si>
-    <t>0853E</t>
-  </si>
-  <si>
-    <t>9075905356-01</t>
-  </si>
-  <si>
-    <t>COSU6211479190</t>
-  </si>
-  <si>
-    <t>HESU4029944</t>
-  </si>
-  <si>
-    <t>9074905936-01</t>
-  </si>
-  <si>
-    <t>TEMU0152483</t>
-  </si>
-  <si>
-    <t>9074905937-01</t>
-  </si>
-  <si>
-    <t>CBHU6353563</t>
-  </si>
-  <si>
-    <t>9078904273-01</t>
-  </si>
-  <si>
-    <t>COSU6209501930</t>
+    <t>0854E</t>
+  </si>
+  <si>
+    <t>9078905143-01</t>
+  </si>
+  <si>
+    <t>COSU6206772770</t>
+  </si>
+  <si>
+    <t>EASU4001225</t>
+  </si>
+  <si>
+    <t>9078905144-01</t>
+  </si>
+  <si>
+    <t>OOLU3794581</t>
+  </si>
+  <si>
+    <t>EVER LUCENT</t>
+  </si>
+  <si>
+    <t>0855E</t>
+  </si>
+  <si>
+    <t>9071906530-01</t>
+  </si>
+  <si>
+    <t>COSU6211668730</t>
+  </si>
+  <si>
+    <t>OOLU3679417</t>
+  </si>
+  <si>
+    <t>9071906528-01</t>
+  </si>
+  <si>
+    <t>COSU6211650440</t>
   </si>
 </sst>
 </file>
@@ -215,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,35 +366,35 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -390,35 +420,35 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -426,64 +456,64 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -491,6 +521,60 @@
       <c r="E15"/>
       <c r="F15" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,130 +32,76 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CCLU4715365</t>
-  </si>
-  <si>
-    <t>EVER SMILE</t>
-  </si>
-  <si>
-    <t>1081E</t>
-  </si>
-  <si>
-    <t>9077904371-01</t>
-  </si>
-  <si>
-    <t>COSU6204572830</t>
-  </si>
-  <si>
-    <t>FSCU5038306</t>
-  </si>
-  <si>
-    <t>9077904373-01</t>
-  </si>
-  <si>
-    <t>CBHU6409087</t>
-  </si>
-  <si>
-    <t>9077904368-01</t>
-  </si>
-  <si>
-    <t>HESU4031448</t>
+    <t>HESU4029923</t>
+  </si>
+  <si>
+    <t>EVER LIBRA</t>
+  </si>
+  <si>
+    <t>0852E</t>
+  </si>
+  <si>
+    <t>9074905934-01</t>
+  </si>
+  <si>
+    <t>COSU6211416150</t>
+  </si>
+  <si>
+    <t>HESU4029939</t>
+  </si>
+  <si>
+    <t>9074905935-01</t>
+  </si>
+  <si>
+    <t>CSNU4095010</t>
+  </si>
+  <si>
+    <t>EVER LENIENT</t>
+  </si>
+  <si>
+    <t>0853E</t>
+  </si>
+  <si>
+    <t>9075905356-01</t>
+  </si>
+  <si>
+    <t>COSU6211479190</t>
+  </si>
+  <si>
+    <t>HESU4029944</t>
+  </si>
+  <si>
+    <t>9074905936-01</t>
+  </si>
+  <si>
+    <t>TEMU0152483</t>
+  </si>
+  <si>
+    <t>9074905937-01</t>
+  </si>
+  <si>
+    <t>TEMU6014563</t>
   </si>
   <si>
     <t>EVER LOVELY</t>
   </si>
   <si>
-    <t>0850E</t>
-  </si>
-  <si>
-    <t>9071905305-01</t>
-  </si>
-  <si>
-    <t>COSU6211257620</t>
-  </si>
-  <si>
-    <t>CCLU4829579</t>
-  </si>
-  <si>
-    <t>9077904372-01</t>
-  </si>
-  <si>
-    <t>HESU4031406</t>
-  </si>
-  <si>
-    <t>9071905304-01</t>
-  </si>
-  <si>
-    <t>BSIU9554839</t>
-  </si>
-  <si>
-    <t>EVER SALUTE</t>
-  </si>
-  <si>
-    <t>1083-078E</t>
-  </si>
-  <si>
-    <t>9078904274-01</t>
-  </si>
-  <si>
-    <t>COSU6209501940</t>
-  </si>
-  <si>
-    <t>HESU4029923</t>
-  </si>
-  <si>
-    <t>EVER LIBRA</t>
-  </si>
-  <si>
-    <t>0852E</t>
-  </si>
-  <si>
-    <t>9074905934-01</t>
-  </si>
-  <si>
-    <t>COSU6211416150</t>
-  </si>
-  <si>
-    <t>HESU4029939</t>
-  </si>
-  <si>
-    <t>9074905935-01</t>
-  </si>
-  <si>
-    <t>CSNU4095010</t>
-  </si>
-  <si>
-    <t>EVER LENIENT</t>
-  </si>
-  <si>
-    <t>0853E</t>
-  </si>
-  <si>
-    <t>9075905356-01</t>
-  </si>
-  <si>
-    <t>COSU6211479190</t>
-  </si>
-  <si>
-    <t>HESU4029944</t>
-  </si>
-  <si>
-    <t>9074905936-01</t>
-  </si>
-  <si>
-    <t>TEMU0152483</t>
-  </si>
-  <si>
-    <t>9074905937-01</t>
-  </si>
-  <si>
-    <t>CBHU6353563</t>
-  </si>
-  <si>
-    <t>9078904273-01</t>
-  </si>
-  <si>
-    <t>COSU6209501930</t>
+    <t>0856E</t>
+  </si>
+  <si>
+    <t>9074906905-01</t>
+  </si>
+  <si>
+    <t>COSU6212391100</t>
+  </si>
+  <si>
+    <t>CSNU6224646</t>
+  </si>
+  <si>
+    <t>9074906912-01</t>
+  </si>
+  <si>
+    <t>COSU6212391000</t>
   </si>
   <si>
     <t>EASU4002875</t>
@@ -201,6 +147,39 @@
   </si>
   <si>
     <t>COSU6211650440</t>
+  </si>
+  <si>
+    <t>CCLU7336529</t>
+  </si>
+  <si>
+    <t>9074906589-01</t>
+  </si>
+  <si>
+    <t>COSU6206779010</t>
+  </si>
+  <si>
+    <t>TCNU1688336</t>
+  </si>
+  <si>
+    <t>9074906901-01</t>
+  </si>
+  <si>
+    <t>TEMU7243348</t>
+  </si>
+  <si>
+    <t>9074906906-01</t>
+  </si>
+  <si>
+    <t>EASU4001328</t>
+  </si>
+  <si>
+    <t>9074906915-01</t>
+  </si>
+  <si>
+    <t>CBHU9029856</t>
+  </si>
+  <si>
+    <t>9074906587-01</t>
   </si>
 </sst>
 </file>
@@ -245,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -312,35 +291,35 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -366,215 +345,197 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -30,54 +30,6 @@
   </si>
   <si>
     <t>BOLNumber</t>
-  </si>
-  <si>
-    <t>HESU4029923</t>
-  </si>
-  <si>
-    <t>EVER LIBRA</t>
-  </si>
-  <si>
-    <t>0852E</t>
-  </si>
-  <si>
-    <t>9074905934-01</t>
-  </si>
-  <si>
-    <t>COSU6211416150</t>
-  </si>
-  <si>
-    <t>HESU4029939</t>
-  </si>
-  <si>
-    <t>9074905935-01</t>
-  </si>
-  <si>
-    <t>CSNU4095010</t>
-  </si>
-  <si>
-    <t>EVER LENIENT</t>
-  </si>
-  <si>
-    <t>0853E</t>
-  </si>
-  <si>
-    <t>9075905356-01</t>
-  </si>
-  <si>
-    <t>COSU6211479190</t>
-  </si>
-  <si>
-    <t>HESU4029944</t>
-  </si>
-  <si>
-    <t>9074905936-01</t>
-  </si>
-  <si>
-    <t>TEMU0152483</t>
-  </si>
-  <si>
-    <t>9074905937-01</t>
   </si>
   <si>
     <t>TEMU6014563</t>
@@ -224,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -283,259 +235,169 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortOAK/Test.xlsx
+++ b/EvergreenPortOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -56,82 +56,112 @@
     <t>COSU6212391000</t>
   </si>
   <si>
-    <t>EASU4002875</t>
-  </si>
-  <si>
-    <t>NAVARINO</t>
-  </si>
-  <si>
-    <t>0854E</t>
-  </si>
-  <si>
-    <t>9078905143-01</t>
-  </si>
-  <si>
-    <t>COSU6206772770</t>
-  </si>
-  <si>
-    <t>EASU4001225</t>
-  </si>
-  <si>
-    <t>9078905144-01</t>
-  </si>
-  <si>
-    <t>OOLU3794581</t>
+    <t>CCLU7336529</t>
+  </si>
+  <si>
+    <t>9074906589-01</t>
+  </si>
+  <si>
+    <t>COSU6206779010</t>
+  </si>
+  <si>
+    <t>CBHU6277102</t>
+  </si>
+  <si>
+    <t>EVER LENIENT</t>
+  </si>
+  <si>
+    <t>0859E</t>
+  </si>
+  <si>
+    <t>9072907108-01</t>
+  </si>
+  <si>
+    <t>COSU6214205950</t>
+  </si>
+  <si>
+    <t>TCNU1688336</t>
+  </si>
+  <si>
+    <t>9074906901-01</t>
+  </si>
+  <si>
+    <t>TEMU7243348</t>
+  </si>
+  <si>
+    <t>9074906906-01</t>
+  </si>
+  <si>
+    <t>CCLU4701103</t>
+  </si>
+  <si>
+    <t>9072907109-01</t>
+  </si>
+  <si>
+    <t>EASU4001328</t>
+  </si>
+  <si>
+    <t>9074906915-01</t>
+  </si>
+  <si>
+    <t>CBHU9029856</t>
+  </si>
+  <si>
+    <t>9074906587-01</t>
+  </si>
+  <si>
+    <t>CCLU4493967</t>
+  </si>
+  <si>
+    <t>9072907112-01</t>
+  </si>
+  <si>
+    <t>COSU6214286210</t>
+  </si>
+  <si>
+    <t>CBHU6381550</t>
+  </si>
+  <si>
+    <t>9072907110-01</t>
+  </si>
+  <si>
+    <t>CSLU5174142</t>
   </si>
   <si>
     <t>EVER LUCENT</t>
   </si>
   <si>
-    <t>0855E</t>
-  </si>
-  <si>
-    <t>9071906530-01</t>
-  </si>
-  <si>
-    <t>COSU6211668730</t>
-  </si>
-  <si>
-    <t>OOLU3679417</t>
-  </si>
-  <si>
-    <t>9071906528-01</t>
-  </si>
-  <si>
-    <t>COSU6211650440</t>
-  </si>
-  <si>
-    <t>CCLU7336529</t>
-  </si>
-  <si>
-    <t>9074906589-01</t>
-  </si>
-  <si>
-    <t>COSU6206779010</t>
-  </si>
-  <si>
-    <t>TCNU1688336</t>
-  </si>
-  <si>
-    <t>9074906901-01</t>
-  </si>
-  <si>
-    <t>TEMU7243348</t>
-  </si>
-  <si>
-    <t>9074906906-01</t>
-  </si>
-  <si>
-    <t>EASU4001328</t>
-  </si>
-  <si>
-    <t>9074906915-01</t>
-  </si>
-  <si>
-    <t>CBHU9029856</t>
-  </si>
-  <si>
-    <t>9074906587-01</t>
+    <t>0861E</t>
+  </si>
+  <si>
+    <t>9075907678-01</t>
+  </si>
+  <si>
+    <t>COSU6214431890</t>
+  </si>
+  <si>
+    <t>CCLU4753215</t>
+  </si>
+  <si>
+    <t>9075907679-01</t>
+  </si>
+  <si>
+    <t>MAGU4878874</t>
+  </si>
+  <si>
+    <t>9075907681-01</t>
+  </si>
+  <si>
+    <t>CCLU5270227</t>
+  </si>
+  <si>
+    <t>9075907677-01</t>
+  </si>
+  <si>
+    <t>RFCU4108730</t>
+  </si>
+  <si>
+    <t>9075907680-01</t>
   </si>
 </sst>
 </file>
@@ -176,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -243,94 +273,94 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -339,16 +369,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -357,47 +387,137 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
